--- a/DSAI-5_timetable.xlsx
+++ b/DSAI-5_timetable.xlsx
@@ -930,7 +930,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Shirshendu L</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr"/>
@@ -956,7 +956,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Siddharth R</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Shirshendu L</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Siddharth R</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr"/>
